--- a/venv/Scripts/Excel_files/MAIN.xlsx
+++ b/venv/Scripts/Excel_files/MAIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\millera\Desktop\Upload Testing\Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\purushv\Documents\nexus_stories\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45587E03-6142-4E55-8EBC-63CBBE095ABE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="149">
   <si>
     <t>ClientName</t>
   </si>
@@ -167,34 +168,34 @@
     <t>Preferred_Non_LRA_S5_DBL</t>
   </si>
   <si>
-    <t>Aegion</t>
-  </si>
-  <si>
-    <t>01159210</t>
-  </si>
-  <si>
-    <t>David Osgood</t>
+    <t>Deutsche Post - (DHL)</t>
+  </si>
+  <si>
+    <t>01075540</t>
+  </si>
+  <si>
+    <t>Ashley Dickerson</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51018</t>
-  </si>
-  <si>
-    <t>Best Western CottonTree Inn</t>
-  </si>
-  <si>
-    <t>2221 West Spruce</t>
-  </si>
-  <si>
-    <t>Rawlins</t>
-  </si>
-  <si>
-    <t>82301</t>
-  </si>
-  <si>
-    <t>United States</t>
+    <t>88154</t>
+  </si>
+  <si>
+    <t>Best Western Capital Hotel</t>
+  </si>
+  <si>
+    <t>Marknadsvagen 6</t>
+  </si>
+  <si>
+    <t>Stockholm</t>
+  </si>
+  <si>
+    <t>S-12044</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
   <si>
     <t>LRA</t>
@@ -209,10 +210,100 @@
     <t>STANDARD</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>122</t>
+    <t>93853</t>
+  </si>
+  <si>
+    <t>Best Western La Porte Des Chateaux</t>
+  </si>
+  <si>
+    <t>21 rue de Blois</t>
+  </si>
+  <si>
+    <t>Meung sur Loire</t>
+  </si>
+  <si>
+    <t>45130</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>94023</t>
+  </si>
+  <si>
+    <t>Best Western Chavannes De Bogis</t>
+  </si>
+  <si>
+    <t>Les Champs Blancs</t>
+  </si>
+  <si>
+    <t>Chavannes-de-Bogis, Geneva</t>
+  </si>
+  <si>
+    <t>1279</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>95086</t>
+  </si>
+  <si>
+    <t>Best Western Hotel Domicil</t>
+  </si>
+  <si>
+    <t>Thomas-Mann-Strasse 24-26</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>D-53111</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>95134</t>
+  </si>
+  <si>
+    <t>Best Western Hotel Kaiserhof</t>
+  </si>
+  <si>
+    <t>Moltkestrasse 64</t>
+  </si>
+  <si>
+    <t>D-53173</t>
+  </si>
+  <si>
+    <t>95197</t>
+  </si>
+  <si>
+    <t>Best Western Plus Hotel Excelsior</t>
+  </si>
+  <si>
+    <t>Bahnhofstrasse 35</t>
+  </si>
+  <si>
+    <t>Erfurt</t>
+  </si>
+  <si>
+    <t>D-99084</t>
+  </si>
+  <si>
+    <t>95502</t>
+  </si>
+  <si>
+    <t>Best Western Hotel Cologne Airport Troisdorf</t>
+  </si>
+  <si>
+    <t>Larstr. 1</t>
+  </si>
+  <si>
+    <t>Troisdorf</t>
+  </si>
+  <si>
+    <t>53844</t>
   </si>
   <si>
     <t>PostalCode</t>
@@ -341,38 +432,53 @@
     <t>Worldspan Pseudo Cities</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>SEK</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>Buffet</t>
   </si>
   <si>
-    <t>Robin Brown</t>
-  </si>
-  <si>
-    <t>Sales Manager</t>
-  </si>
-  <si>
-    <t>BlackoutDates</t>
-  </si>
-  <si>
-    <t>31/12/18</t>
+    <t>Nina Uhlén</t>
+  </si>
+  <si>
+    <t>Revenue Manager</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>Olivier LAUTISSIER</t>
+  </si>
+  <si>
+    <t>DIRECTOR OF SALES</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>4PM</t>
+  </si>
+  <si>
+    <t>NLRA</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -383,18 +489,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -409,16 +516,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -693,24 +812,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AV5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AV3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
     <col min="5" max="5" width="17.140625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="27" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" customWidth="1"/>
+    <col min="7" max="7" width="41.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.5703125" customWidth="1"/>
+    <col min="9" max="9" width="26.85546875" customWidth="1"/>
     <col min="10" max="10" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="13.85546875" customWidth="1"/>
     <col min="12" max="12" width="18.140625" customWidth="1"/>
@@ -753,148 +872,148 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:48">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
@@ -932,8 +1051,8 @@
       <c r="K2" t="s">
         <v>57</v>
       </c>
-      <c r="L2" t="s">
-        <v>58</v>
+      <c r="L2" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="M2" t="s">
         <v>59</v>
@@ -945,52 +1064,174 @@
         <v>61</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
-      </c>
-      <c r="R2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>114</v>
+        <v>61</v>
+      </c>
+      <c r="R2" s="1">
+        <v>10</v>
+      </c>
+      <c r="S2" s="2">
+        <v>43647</v>
       </c>
       <c r="T2" s="2">
-        <v>43830</v>
-      </c>
-      <c r="U2">
-        <v>129.99</v>
-      </c>
-      <c r="V2">
-        <v>129.99</v>
+        <v>44196</v>
+      </c>
+      <c r="U2" s="4">
+        <v>99</v>
+      </c>
+      <c r="V2" s="4">
+        <v>99</v>
+      </c>
+      <c r="W2" s="1">
+        <v>790</v>
+      </c>
+      <c r="X2" s="1">
+        <v>990</v>
       </c>
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
     </row>
-    <row r="5" spans="1:48">
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
+    <row r="3" spans="1:48">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
+      </c>
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" t="s">
+        <v>67</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1">
+        <v>33</v>
+      </c>
+      <c r="S3" s="2">
+        <v>43647</v>
+      </c>
+      <c r="T3" s="2">
+        <v>44196</v>
+      </c>
+      <c r="U3" s="1">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F2:F3">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AX3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
     <col min="10" max="10" width="21.140625" customWidth="1"/>
@@ -1025,7 +1266,7 @@
     <col min="39" max="39" width="21.28515625" customWidth="1"/>
     <col min="40" max="40" width="19.42578125" customWidth="1"/>
     <col min="41" max="41" width="18.5703125" customWidth="1"/>
-    <col min="42" max="42" width="17.140625" customWidth="1"/>
+    <col min="42" max="42" width="18.85546875" customWidth="1"/>
     <col min="43" max="43" width="25.85546875" customWidth="1"/>
     <col min="44" max="44" width="22.28515625" customWidth="1"/>
     <col min="45" max="45" width="23.28515625" customWidth="1"/>
@@ -1037,155 +1278,155 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AM1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="O1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="P1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="Q1" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="R1" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="T1" s="3" t="s">
         <v>105</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="W1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="X1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y1" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AA1" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB1" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AC1" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AD1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE1" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF1" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AI1" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ1" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK1" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL1" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM1" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="AN1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="AO1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="AQ1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AS1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="AU1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="AV1" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="AW1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="AX1" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:50">
@@ -1217,76 +1458,176 @@
         <v>56</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K2">
-        <v>10</v>
+        <v>136</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="M2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="N2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="O2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="Q2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="R2" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="S2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="T2" t="s">
-        <v>106</v>
-      </c>
-      <c r="U2">
-        <v>10</v>
+        <v>138</v>
+      </c>
+      <c r="U2" s="1">
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="W2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="X2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="Y2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="Z2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AA2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AB2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="AF2" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="AG2" t="s">
-        <v>106</v>
+        <v>138</v>
       </c>
       <c r="AI2" t="s">
-        <v>109</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AK2" s="1"/>
       <c r="AO2" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="AP2" t="s">
-        <v>112</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>136</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>142</v>
+      </c>
+      <c r="M3" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>136</v>
+      </c>
+      <c r="R3" t="s">
+        <v>138</v>
+      </c>
+      <c r="S3" t="s">
+        <v>136</v>
+      </c>
+      <c r="T3" t="s">
+        <v>138</v>
+      </c>
+      <c r="U3" s="1">
+        <v>11</v>
+      </c>
+      <c r="V3" t="s">
+        <v>139</v>
+      </c>
+      <c r="W3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>138</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AO3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1295,58 +1636,110 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AJ8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.140625" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="8.140625" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" customWidth="1"/>
+    <col min="13" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" customWidth="1"/>
+    <col min="15" max="15" width="19.85546875" customWidth="1"/>
+    <col min="16" max="16" width="20.28515625" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" customWidth="1"/>
+    <col min="21" max="21" width="19.85546875" customWidth="1"/>
+    <col min="22" max="22" width="20.28515625" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" customWidth="1"/>
+    <col min="24" max="24" width="19.85546875" customWidth="1"/>
+    <col min="25" max="25" width="20.28515625" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="20.28515625" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" customWidth="1"/>
+    <col min="30" max="30" width="19.85546875" customWidth="1"/>
+    <col min="31" max="31" width="20.28515625" customWidth="1"/>
+    <col min="32" max="32" width="17.85546875" customWidth="1"/>
+    <col min="33" max="33" width="19.85546875" customWidth="1"/>
+    <col min="34" max="34" width="20.28515625" customWidth="1"/>
+    <col min="35" max="35" width="17.85546875" customWidth="1"/>
+    <col min="36" max="36" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3"/>
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -1374,6 +1767,306 @@
       <c r="I2" t="s">
         <v>56</v>
       </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+    </row>
+    <row r="3" spans="1:36">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+    </row>
+    <row r="4" spans="1:36">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G4" t="s">
+        <v>71</v>
+      </c>
+      <c r="H4" t="s">
+        <v>73</v>
+      </c>
+      <c r="I4" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+    </row>
+    <row r="5" spans="1:36">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+    </row>
+    <row r="6" spans="1:36">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+    </row>
+    <row r="7" spans="1:36">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+    </row>
+    <row r="8" spans="1:36">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>89</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>92</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
